--- a/jupyter_notebook/resources/dataset_a_2021v5_ExitoSol1.xlsx
+++ b/jupyter_notebook/resources/dataset_a_2021v5_ExitoSol1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\tesis\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\tesis\jupyter_notebook\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297ED97A-C43C-4AE7-BA42-8944D3C5B2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF9B1C3-2836-4ACE-919C-65B37CBCEB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25310" yWindow="-110" windowWidth="25420" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset_a_2021v2" sheetId="1" r:id="rId1"/>
@@ -677,9 +677,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1035,15 +1034,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F840"/>
+  <dimension ref="A1:D840"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -1057,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1071,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
@@ -1085,7 +1084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -1099,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1113,7 +1112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1127,7 +1126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1141,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1155,7 +1154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1169,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1182,9 +1181,8 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1198,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1212,7 +1210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1226,7 +1224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1240,7 +1238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -1254,7 +1252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1268,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -1282,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1296,7 +1294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -1310,7 +1308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1324,7 +1322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1338,7 +1336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>7</v>
       </c>
@@ -1352,7 +1350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1366,7 +1364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1380,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -1394,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1408,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1422,7 +1420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7</v>
       </c>
@@ -1436,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -1450,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -1464,7 +1462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1478,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1492,7 +1490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10</v>
       </c>
@@ -1506,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>11</v>
       </c>
@@ -1520,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -1534,7 +1532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -1548,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -1562,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>12</v>
       </c>
@@ -1576,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0</v>
       </c>
@@ -1590,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0</v>
       </c>
@@ -1604,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>17</v>
       </c>
@@ -1618,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -1632,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0</v>
       </c>
@@ -1646,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1660,7 +1658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0</v>
       </c>
@@ -1674,7 +1672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10</v>
       </c>
@@ -1688,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -1702,7 +1700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>10</v>
       </c>
@@ -1716,7 +1714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0</v>
       </c>
@@ -1730,7 +1728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1744,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0</v>
       </c>
@@ -1758,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>7</v>
       </c>
@@ -1772,7 +1770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0</v>
       </c>
@@ -1786,7 +1784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0</v>
       </c>
@@ -1800,7 +1798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>8</v>
       </c>
@@ -1814,7 +1812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10</v>
       </c>
@@ -1828,7 +1826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>8</v>
       </c>
@@ -1842,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7</v>
       </c>
@@ -1856,7 +1854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -1870,7 +1868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>8</v>
       </c>
@@ -1884,7 +1882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>7</v>
       </c>
@@ -1898,7 +1896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>17</v>
       </c>
@@ -1912,7 +1910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>12</v>
       </c>
@@ -1926,7 +1924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>9</v>
       </c>
@@ -1940,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7</v>
       </c>
@@ -1954,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0</v>
       </c>
@@ -1968,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0</v>
       </c>
@@ -1982,7 +1980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6</v>
       </c>
@@ -1996,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0</v>
       </c>
@@ -2010,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4</v>
       </c>
@@ -2024,7 +2022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>7</v>
       </c>
@@ -2038,7 +2036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>9</v>
       </c>
@@ -2052,7 +2050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>9</v>
       </c>
@@ -2066,7 +2064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>10</v>
       </c>
@@ -2080,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0</v>
       </c>
@@ -2094,7 +2092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0</v>
       </c>
@@ -2108,7 +2106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>13</v>
       </c>
@@ -2122,7 +2120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>13</v>
       </c>
@@ -2136,7 +2134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>8</v>
       </c>
@@ -2150,7 +2148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7</v>
       </c>
@@ -2164,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>6</v>
       </c>
@@ -2178,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>11</v>
       </c>
@@ -2192,7 +2190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0</v>
       </c>
@@ -2206,7 +2204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0</v>
       </c>
@@ -2220,7 +2218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4</v>
       </c>
@@ -2234,7 +2232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>7</v>
       </c>
@@ -2248,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>8</v>
       </c>
@@ -2262,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2</v>
       </c>
@@ -2276,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>8</v>
       </c>
@@ -2290,7 +2288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>7</v>
       </c>
@@ -2304,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>8</v>
       </c>
@@ -2318,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>7</v>
       </c>
@@ -2332,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>3</v>
       </c>
@@ -2346,7 +2344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3</v>
       </c>
@@ -2360,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>14</v>
       </c>
@@ -2374,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5</v>
       </c>
@@ -2388,7 +2386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>10</v>
       </c>
@@ -2402,7 +2400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0</v>
       </c>
@@ -2416,7 +2414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>10</v>
       </c>
@@ -2430,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9</v>
       </c>
@@ -2444,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>16</v>
       </c>
@@ -2458,7 +2456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5</v>
       </c>
@@ -2472,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>7</v>
       </c>
@@ -2486,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>13</v>
       </c>
@@ -2500,7 +2498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>7</v>
       </c>
@@ -2514,7 +2512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2</v>
       </c>
@@ -2528,7 +2526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>7</v>
       </c>
@@ -2542,7 +2540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>8</v>
       </c>
@@ -2556,7 +2554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>8</v>
       </c>
@@ -2570,7 +2568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>9</v>
       </c>
@@ -2584,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>0</v>
       </c>
@@ -2598,7 +2596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>0</v>
       </c>
@@ -2612,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>7</v>
       </c>
@@ -2626,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>8</v>
       </c>
@@ -2640,7 +2638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>0</v>
       </c>
@@ -2654,7 +2652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5</v>
       </c>
@@ -2668,7 +2666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>0</v>
       </c>
@@ -2682,7 +2680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>7</v>
       </c>
@@ -2696,7 +2694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>7</v>
       </c>
@@ -2710,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>4</v>
       </c>
@@ -2724,7 +2722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>6</v>
       </c>
@@ -2738,7 +2736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>0</v>
       </c>
@@ -2752,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>8</v>
       </c>
@@ -2766,7 +2764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>7</v>
       </c>
@@ -2780,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>6</v>
       </c>
@@ -2794,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>8</v>
       </c>
@@ -2808,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>10</v>
       </c>
@@ -2822,7 +2820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5</v>
       </c>
@@ -2836,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>6</v>
       </c>
@@ -2850,7 +2848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>6</v>
       </c>
@@ -2864,7 +2862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>3</v>
       </c>
@@ -2878,7 +2876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>7</v>
       </c>
@@ -2892,7 +2890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>4</v>
       </c>
@@ -2906,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>0</v>
       </c>
@@ -2920,7 +2918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>0</v>
       </c>
@@ -2934,7 +2932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>7</v>
       </c>
@@ -2948,7 +2946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>0</v>
       </c>
@@ -2962,7 +2960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>0</v>
       </c>
@@ -2976,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>0</v>
       </c>
@@ -2990,7 +2988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>5</v>
       </c>
@@ -3004,7 +3002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>16</v>
       </c>
@@ -3018,7 +3016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>0</v>
       </c>
@@ -3032,7 +3030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>15</v>
       </c>
@@ -3046,7 +3044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>8</v>
       </c>
@@ -3060,7 +3058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>0</v>
       </c>
@@ -3074,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>0</v>
       </c>
@@ -3088,7 +3086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>0</v>
       </c>
@@ -3102,7 +3100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>0</v>
       </c>
@@ -3116,7 +3114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>0</v>
       </c>
@@ -3130,7 +3128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>0</v>
       </c>
@@ -3144,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>0</v>
       </c>
@@ -3158,7 +3156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>11</v>
       </c>
@@ -3172,7 +3170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>0</v>
       </c>
@@ -3186,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>0</v>
       </c>
@@ -3200,7 +3198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>0</v>
       </c>
@@ -3214,7 +3212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1</v>
       </c>
@@ -3228,7 +3226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2</v>
       </c>
@@ -3242,7 +3240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>6</v>
       </c>
@@ -3256,7 +3254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>7</v>
       </c>
@@ -3270,7 +3268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>0</v>
       </c>
@@ -3284,7 +3282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>14</v>
       </c>
@@ -3298,7 +3296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>6</v>
       </c>
@@ -3312,7 +3310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>0</v>
       </c>
@@ -3326,7 +3324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>8</v>
       </c>
@@ -3340,7 +3338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>0</v>
       </c>
@@ -3354,7 +3352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>9</v>
       </c>
@@ -3368,7 +3366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>0</v>
       </c>
@@ -3382,7 +3380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>0</v>
       </c>
@@ -3396,7 +3394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>0</v>
       </c>
@@ -3410,7 +3408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>0</v>
       </c>
@@ -3424,7 +3422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>0</v>
       </c>
@@ -3438,7 +3436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>16</v>
       </c>
@@ -3452,7 +3450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>7</v>
       </c>
@@ -3466,7 +3464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>5</v>
       </c>
@@ -3480,7 +3478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>6</v>
       </c>
@@ -3494,7 +3492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>6</v>
       </c>
@@ -3508,7 +3506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>0</v>
       </c>
@@ -3522,7 +3520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>0</v>
       </c>
@@ -3536,7 +3534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>5</v>
       </c>
@@ -3550,7 +3548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>0</v>
       </c>
@@ -3564,7 +3562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>8</v>
       </c>
@@ -3578,7 +3576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>14</v>
       </c>
@@ -3592,7 +3590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>3</v>
       </c>
@@ -3606,7 +3604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>4</v>
       </c>
@@ -3620,7 +3618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>4</v>
       </c>
@@ -3634,7 +3632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>0</v>
       </c>
@@ -3648,7 +3646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>9</v>
       </c>
@@ -3662,7 +3660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2</v>
       </c>
@@ -3676,7 +3674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>9</v>
       </c>
@@ -3690,7 +3688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>0</v>
       </c>
@@ -3704,7 +3702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1</v>
       </c>
@@ -3718,7 +3716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>3</v>
       </c>
@@ -3732,7 +3730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>0</v>
       </c>
@@ -3746,7 +3744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>10</v>
       </c>
@@ -3760,7 +3758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>11</v>
       </c>
@@ -3774,7 +3772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>4</v>
       </c>
@@ -3788,7 +3786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>6</v>
       </c>
@@ -3802,7 +3800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>0</v>
       </c>
@@ -3816,7 +3814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>3</v>
       </c>
@@ -3830,7 +3828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>0</v>
       </c>
@@ -3844,7 +3842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>3</v>
       </c>
@@ -3858,7 +3856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>12</v>
       </c>
@@ -3872,7 +3870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>6</v>
       </c>
@@ -3886,7 +3884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>6</v>
       </c>
@@ -3900,7 +3898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>13</v>
       </c>
@@ -3914,7 +3912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>0</v>
       </c>
@@ -3928,7 +3926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>0</v>
       </c>
@@ -3942,7 +3940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>0</v>
       </c>
@@ -3956,7 +3954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1</v>
       </c>
@@ -3970,7 +3968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>8</v>
       </c>
@@ -3984,7 +3982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>3</v>
       </c>
@@ -3998,7 +3996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>5</v>
       </c>
@@ -4012,7 +4010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>0</v>
       </c>
@@ -4026,7 +4024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>5</v>
       </c>
@@ -4040,7 +4038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>0</v>
       </c>
@@ -4054,7 +4052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>0</v>
       </c>
@@ -4068,7 +4066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>4</v>
       </c>
@@ -4082,7 +4080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>14</v>
       </c>
@@ -4096,7 +4094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>0</v>
       </c>
@@ -4110,7 +4108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>0</v>
       </c>
@@ -4124,7 +4122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1</v>
       </c>
@@ -4138,7 +4136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>9</v>
       </c>
@@ -4152,7 +4150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>5</v>
       </c>
@@ -4166,7 +4164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>11</v>
       </c>
@@ -4180,7 +4178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>6</v>
       </c>
@@ -4194,7 +4192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>6</v>
       </c>
@@ -4208,7 +4206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>4</v>
       </c>
@@ -4222,7 +4220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>9</v>
       </c>
@@ -4236,7 +4234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>0</v>
       </c>
@@ -4250,7 +4248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>5</v>
       </c>
@@ -4264,7 +4262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>7</v>
       </c>
@@ -4278,7 +4276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>0</v>
       </c>
@@ -4292,7 +4290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>15</v>
       </c>
@@ -4306,7 +4304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>10</v>
       </c>
@@ -4320,7 +4318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>4</v>
       </c>
@@ -4334,7 +4332,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2</v>
       </c>
@@ -4348,7 +4346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>12</v>
       </c>
@@ -4362,7 +4360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>6</v>
       </c>
@@ -4376,7 +4374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>0</v>
       </c>
@@ -4390,7 +4388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>0</v>
       </c>
@@ -4404,7 +4402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>4</v>
       </c>
@@ -4418,7 +4416,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>0</v>
       </c>
@@ -4432,7 +4430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>15</v>
       </c>
@@ -4446,7 +4444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>3</v>
       </c>
@@ -4460,7 +4458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>0</v>
       </c>
@@ -4474,7 +4472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>6</v>
       </c>
@@ -4488,7 +4486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>0</v>
       </c>
@@ -4502,7 +4500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>3</v>
       </c>
@@ -4516,7 +4514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>3</v>
       </c>
@@ -4530,7 +4528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>14</v>
       </c>
@@ -4544,7 +4542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>9</v>
       </c>
@@ -4558,7 +4556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>11</v>
       </c>
@@ -4572,7 +4570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>11</v>
       </c>
@@ -4586,7 +4584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>10</v>
       </c>
@@ -4600,7 +4598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>7</v>
       </c>
@@ -4614,7 +4612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>12</v>
       </c>
@@ -4628,7 +4626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>9</v>
       </c>
@@ -4642,7 +4640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>0</v>
       </c>
@@ -4656,7 +4654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>5</v>
       </c>
@@ -4670,7 +4668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>0</v>
       </c>
@@ -4684,7 +4682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>16</v>
       </c>
@@ -4698,7 +4696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>8</v>
       </c>
@@ -4712,7 +4710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>10</v>
       </c>
@@ -4726,7 +4724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>26</v>
       </c>
@@ -4740,7 +4738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>3</v>
       </c>
@@ -4754,7 +4752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>7</v>
       </c>
@@ -4768,7 +4766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>7</v>
       </c>
@@ -4782,7 +4780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1</v>
       </c>
@@ -4796,7 +4794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>5</v>
       </c>
@@ -4810,7 +4808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>0</v>
       </c>
@@ -4824,7 +4822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>0</v>
       </c>
@@ -4838,7 +4836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2</v>
       </c>
@@ -4852,7 +4850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>11</v>
       </c>
@@ -4866,7 +4864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>14</v>
       </c>
@@ -4880,7 +4878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>3</v>
       </c>
@@ -4894,7 +4892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>8</v>
       </c>
@@ -4908,7 +4906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2</v>
       </c>
@@ -4922,7 +4920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>14</v>
       </c>
@@ -4936,7 +4934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>8</v>
       </c>
@@ -4950,7 +4948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>7</v>
       </c>
@@ -4964,7 +4962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>13</v>
       </c>
@@ -4978,7 +4976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>2</v>
       </c>
@@ -4992,7 +4990,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>0</v>
       </c>
@@ -5006,7 +5004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>7</v>
       </c>
@@ -5020,7 +5018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>0</v>
       </c>
@@ -5034,7 +5032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1</v>
       </c>
@@ -5048,7 +5046,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>13</v>
       </c>
@@ -5062,7 +5060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>0</v>
       </c>
@@ -5076,7 +5074,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>0</v>
       </c>
@@ -5090,7 +5088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>0</v>
       </c>
@@ -5104,7 +5102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>10</v>
       </c>
@@ -5118,7 +5116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>0</v>
       </c>
@@ -5132,7 +5130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>0</v>
       </c>
@@ -5146,7 +5144,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>0</v>
       </c>
@@ -5160,7 +5158,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>6</v>
       </c>
@@ -5174,7 +5172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>7</v>
       </c>
@@ -5188,7 +5186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>16</v>
       </c>
@@ -5202,7 +5200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>13</v>
       </c>
@@ -5216,7 +5214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>7</v>
       </c>
@@ -5230,7 +5228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>0</v>
       </c>
@@ -5244,7 +5242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>8</v>
       </c>
@@ -5258,7 +5256,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>11</v>
       </c>
@@ -5272,7 +5270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>5</v>
       </c>
@@ -5286,7 +5284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>0</v>
       </c>
@@ -5300,7 +5298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>3</v>
       </c>
@@ -5314,7 +5312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>0</v>
       </c>
@@ -5328,7 +5326,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>2</v>
       </c>
@@ -5342,7 +5340,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>10</v>
       </c>
@@ -5356,7 +5354,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>0</v>
       </c>
@@ -5370,7 +5368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>10</v>
       </c>
@@ -5384,7 +5382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>0</v>
       </c>
@@ -5398,7 +5396,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>10</v>
       </c>
@@ -5412,7 +5410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>4</v>
       </c>
@@ -5426,7 +5424,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1</v>
       </c>
@@ -5440,7 +5438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>9</v>
       </c>
@@ -5454,7 +5452,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>7</v>
       </c>
@@ -5468,7 +5466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>0</v>
       </c>
@@ -5482,7 +5480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>6</v>
       </c>
@@ -5496,7 +5494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>0</v>
       </c>
@@ -5510,7 +5508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>12</v>
       </c>
@@ -5524,7 +5522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>0</v>
       </c>
@@ -5538,7 +5536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>5</v>
       </c>
@@ -5552,7 +5550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>7</v>
       </c>
@@ -5566,7 +5564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>0</v>
       </c>
@@ -5580,7 +5578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>7</v>
       </c>
@@ -5594,7 +5592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>7</v>
       </c>
@@ -5608,7 +5606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>0</v>
       </c>
@@ -5622,7 +5620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>4</v>
       </c>
@@ -5636,7 +5634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>7</v>
       </c>
@@ -5650,7 +5648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>9</v>
       </c>
@@ -5664,7 +5662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>12</v>
       </c>
@@ -5678,7 +5676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>6</v>
       </c>
@@ -5692,7 +5690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>16</v>
       </c>
@@ -5706,7 +5704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>4</v>
       </c>
@@ -5720,7 +5718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>15</v>
       </c>
@@ -5734,7 +5732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>12</v>
       </c>
@@ -5748,7 +5746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>9</v>
       </c>
@@ -5762,7 +5760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>6</v>
       </c>
@@ -5776,7 +5774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>9</v>
       </c>
@@ -5790,7 +5788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>8</v>
       </c>
@@ -5804,7 +5802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>15</v>
       </c>
@@ -5818,7 +5816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>13</v>
       </c>
@@ -5832,7 +5830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>8</v>
       </c>
@@ -5846,7 +5844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>11</v>
       </c>
@@ -5860,7 +5858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>7</v>
       </c>
@@ -5874,7 +5872,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>5</v>
       </c>
@@ -5888,7 +5886,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>6</v>
       </c>
@@ -5902,7 +5900,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>8</v>
       </c>
@@ -5916,7 +5914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>0</v>
       </c>
@@ -5930,7 +5928,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>6</v>
       </c>
@@ -5944,7 +5942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>11</v>
       </c>
@@ -5958,7 +5956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>4</v>
       </c>
@@ -5972,7 +5970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>5</v>
       </c>
@@ -5986,7 +5984,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>8</v>
       </c>
@@ -6000,7 +5998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>15</v>
       </c>
@@ -6014,7 +6012,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>13</v>
       </c>
@@ -6028,7 +6026,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>8</v>
       </c>
@@ -6042,7 +6040,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>2</v>
       </c>
@@ -6056,7 +6054,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>11</v>
       </c>
@@ -6070,7 +6068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>8</v>
       </c>
@@ -6084,7 +6082,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>10</v>
       </c>
@@ -6098,7 +6096,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>15</v>
       </c>
@@ -6112,7 +6110,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>5</v>
       </c>
@@ -6126,7 +6124,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>8</v>
       </c>
@@ -6140,7 +6138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>0</v>
       </c>
@@ -6154,7 +6152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>0</v>
       </c>
@@ -6168,7 +6166,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>11</v>
       </c>
@@ -6182,7 +6180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>8</v>
       </c>
@@ -6196,7 +6194,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>7</v>
       </c>
@@ -6210,7 +6208,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>3</v>
       </c>
@@ -6224,7 +6222,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>4</v>
       </c>
@@ -6238,7 +6236,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>26</v>
       </c>
@@ -6252,7 +6250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>15</v>
       </c>
@@ -6266,7 +6264,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>12</v>
       </c>
@@ -6280,7 +6278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>0</v>
       </c>
@@ -6294,7 +6292,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>4</v>
       </c>
@@ -6308,7 +6306,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>7</v>
       </c>
@@ -6322,7 +6320,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>7</v>
       </c>
@@ -6336,7 +6334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>12</v>
       </c>
@@ -6350,7 +6348,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>4</v>
       </c>
@@ -6364,7 +6362,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>5</v>
       </c>
@@ -6378,7 +6376,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>5</v>
       </c>
@@ -6392,7 +6390,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>10</v>
       </c>
@@ -6406,7 +6404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>7</v>
       </c>
@@ -6420,7 +6418,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>3</v>
       </c>
@@ -6434,7 +6432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>0</v>
       </c>
@@ -6448,7 +6446,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>5</v>
       </c>
@@ -6462,7 +6460,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>6</v>
       </c>
@@ -6476,7 +6474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>9</v>
       </c>
@@ -6490,7 +6488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>8</v>
       </c>
@@ -6504,7 +6502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>12</v>
       </c>
@@ -6518,7 +6516,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>6</v>
       </c>
@@ -6532,7 +6530,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>9</v>
       </c>
@@ -6546,7 +6544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>0</v>
       </c>
@@ -6560,7 +6558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>9</v>
       </c>
@@ -6574,7 +6572,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>0</v>
       </c>
@@ -6588,7 +6586,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>12</v>
       </c>
@@ -6602,7 +6600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>10</v>
       </c>
@@ -6616,7 +6614,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>14</v>
       </c>
@@ -6630,7 +6628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>8</v>
       </c>
@@ -6644,7 +6642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>7</v>
       </c>
@@ -6658,7 +6656,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>8</v>
       </c>
@@ -6672,7 +6670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>6</v>
       </c>
@@ -6686,7 +6684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>0</v>
       </c>
@@ -6700,7 +6698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>2</v>
       </c>
@@ -6714,7 +6712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>0</v>
       </c>
@@ -6728,7 +6726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>6</v>
       </c>
@@ -6742,7 +6740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>0</v>
       </c>
@@ -6756,7 +6754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>7</v>
       </c>
@@ -6770,7 +6768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>0</v>
       </c>
@@ -6784,7 +6782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>7</v>
       </c>
@@ -6798,7 +6796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>7</v>
       </c>
@@ -6812,7 +6810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>3</v>
       </c>
@@ -6826,7 +6824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>11</v>
       </c>
@@ -6840,7 +6838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>0</v>
       </c>
@@ -6854,7 +6852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>6</v>
       </c>
@@ -6868,7 +6866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>14</v>
       </c>
@@ -6882,7 +6880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>3</v>
       </c>
@@ -6896,7 +6894,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>0</v>
       </c>
@@ -6910,7 +6908,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>12</v>
       </c>
@@ -6924,7 +6922,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>13</v>
       </c>
@@ -6938,7 +6936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>7</v>
       </c>
@@ -6952,7 +6950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>0</v>
       </c>
@@ -6966,7 +6964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>7</v>
       </c>
@@ -6980,7 +6978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>3</v>
       </c>
@@ -6994,7 +6992,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>7</v>
       </c>
@@ -7008,7 +7006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>6</v>
       </c>
@@ -7022,7 +7020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>13</v>
       </c>
@@ -7036,7 +7034,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>6</v>
       </c>
@@ -7050,7 +7048,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>13</v>
       </c>
@@ -7064,7 +7062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>9</v>
       </c>
@@ -7078,7 +7076,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>12</v>
       </c>
@@ -7092,7 +7090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>14</v>
       </c>
@@ -7106,7 +7104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>16</v>
       </c>
@@ -7120,7 +7118,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>12</v>
       </c>
@@ -7134,7 +7132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>12</v>
       </c>
@@ -7148,7 +7146,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>6</v>
       </c>
@@ -7162,7 +7160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>16</v>
       </c>
@@ -7176,7 +7174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>10</v>
       </c>
@@ -7190,7 +7188,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>16</v>
       </c>
@@ -7204,7 +7202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>4</v>
       </c>
@@ -7218,7 +7216,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>10</v>
       </c>
@@ -7232,7 +7230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>9</v>
       </c>
@@ -7246,7 +7244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>10</v>
       </c>
@@ -7260,7 +7258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>10</v>
       </c>
@@ -7274,7 +7272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>5</v>
       </c>
@@ -7288,7 +7286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>11</v>
       </c>
@@ -7302,7 +7300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>10</v>
       </c>
@@ -7316,7 +7314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>10</v>
       </c>
@@ -7330,7 +7328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>6</v>
       </c>
@@ -7344,7 +7342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>12</v>
       </c>
@@ -7358,7 +7356,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>0</v>
       </c>
@@ -7372,7 +7370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>11</v>
       </c>
@@ -7386,7 +7384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>6</v>
       </c>
@@ -7400,7 +7398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>12</v>
       </c>
@@ -7414,7 +7412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>14</v>
       </c>
@@ -7428,7 +7426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>10</v>
       </c>
@@ -7442,7 +7440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>11</v>
       </c>
@@ -7456,7 +7454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>5</v>
       </c>
@@ -7470,7 +7468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>1</v>
       </c>
@@ -7484,7 +7482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>3</v>
       </c>
@@ -7498,7 +7496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>15</v>
       </c>
@@ -7512,7 +7510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>3</v>
       </c>
@@ -7526,7 +7524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>0</v>
       </c>
@@ -7540,7 +7538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>12</v>
       </c>
@@ -7554,7 +7552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>10</v>
       </c>
@@ -7568,7 +7566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>7</v>
       </c>
@@ -7582,7 +7580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>11</v>
       </c>
@@ -7596,7 +7594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>15</v>
       </c>
@@ -7610,7 +7608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>10</v>
       </c>
@@ -7624,7 +7622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>10</v>
       </c>
@@ -7638,7 +7636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>0</v>
       </c>
@@ -7652,7 +7650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>11</v>
       </c>
@@ -7666,7 +7664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>10</v>
       </c>
@@ -7680,7 +7678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>7</v>
       </c>
@@ -7694,7 +7692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>6</v>
       </c>
@@ -7708,7 +7706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>5</v>
       </c>
@@ -7722,7 +7720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>8</v>
       </c>
@@ -7736,7 +7734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>9</v>
       </c>
@@ -7750,7 +7748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>8</v>
       </c>
@@ -7764,7 +7762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>0</v>
       </c>
@@ -7778,7 +7776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>7</v>
       </c>
@@ -7792,7 +7790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>7</v>
       </c>
@@ -7806,7 +7804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>13</v>
       </c>
@@ -7820,7 +7818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>10</v>
       </c>
@@ -7834,7 +7832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>4</v>
       </c>
@@ -7848,7 +7846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>0</v>
       </c>
@@ -7862,7 +7860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>7</v>
       </c>
@@ -7876,7 +7874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>9</v>
       </c>
@@ -7890,7 +7888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>10</v>
       </c>
@@ -7904,7 +7902,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>0</v>
       </c>
@@ -7918,7 +7916,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>6</v>
       </c>
@@ -7932,7 +7930,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>6</v>
       </c>
@@ -7946,7 +7944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>6</v>
       </c>
@@ -7960,7 +7958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>7</v>
       </c>
@@ -7974,7 +7972,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>0</v>
       </c>
@@ -7988,7 +7986,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>7</v>
       </c>
@@ -8002,7 +8000,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>7</v>
       </c>
@@ -8016,7 +8014,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>5</v>
       </c>
@@ -8030,7 +8028,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>11</v>
       </c>
@@ -8044,7 +8042,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>16</v>
       </c>
@@ -8058,7 +8056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>8</v>
       </c>
@@ -8072,7 +8070,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>12</v>
       </c>
@@ -8086,7 +8084,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>11</v>
       </c>
@@ -8100,7 +8098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>13</v>
       </c>
@@ -8114,7 +8112,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>16</v>
       </c>
@@ -8128,7 +8126,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>11</v>
       </c>
@@ -8142,7 +8140,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>5</v>
       </c>
@@ -8156,7 +8154,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>14</v>
       </c>
@@ -8170,7 +8168,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>11</v>
       </c>
@@ -8184,7 +8182,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>13</v>
       </c>
@@ -8198,7 +8196,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>3</v>
       </c>
@@ -8212,7 +8210,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>10</v>
       </c>
@@ -8226,7 +8224,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>7</v>
       </c>
@@ -8240,7 +8238,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>12</v>
       </c>
@@ -8254,7 +8252,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>7</v>
       </c>
@@ -8268,7 +8266,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>7</v>
       </c>
@@ -8282,7 +8280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>7</v>
       </c>
@@ -8296,7 +8294,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>9</v>
       </c>
@@ -8310,7 +8308,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>16</v>
       </c>
@@ -8324,7 +8322,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>11</v>
       </c>
@@ -8338,7 +8336,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>13</v>
       </c>
@@ -8352,7 +8350,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>13</v>
       </c>
@@ -8366,7 +8364,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>7</v>
       </c>
@@ -8380,7 +8378,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>28</v>
       </c>
@@ -8394,7 +8392,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>10</v>
       </c>
@@ -8408,7 +8406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>12</v>
       </c>
@@ -8422,7 +8420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>8</v>
       </c>
@@ -8436,7 +8434,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>4</v>
       </c>
@@ -8450,7 +8448,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>10</v>
       </c>
@@ -8464,7 +8462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>16</v>
       </c>
@@ -8478,7 +8476,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>10</v>
       </c>
@@ -8492,7 +8490,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>6</v>
       </c>
@@ -8506,7 +8504,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>5</v>
       </c>
@@ -8520,7 +8518,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>5</v>
       </c>
@@ -8534,7 +8532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>3</v>
       </c>
@@ -8548,7 +8546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>8</v>
       </c>
@@ -8562,7 +8560,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>6</v>
       </c>
@@ -8576,7 +8574,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>13</v>
       </c>
@@ -8590,7 +8588,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>3</v>
       </c>
@@ -8604,7 +8602,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>9</v>
       </c>
@@ -8618,7 +8616,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>11</v>
       </c>
@@ -8632,7 +8630,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>15</v>
       </c>
@@ -8646,7 +8644,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>26</v>
       </c>
@@ -8660,7 +8658,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>15</v>
       </c>
@@ -8674,7 +8672,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>5</v>
       </c>
@@ -8688,7 +8686,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>0</v>
       </c>
@@ -8702,7 +8700,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>16</v>
       </c>
@@ -8716,7 +8714,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>11</v>
       </c>
@@ -8730,7 +8728,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>11</v>
       </c>
@@ -8744,7 +8742,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>5</v>
       </c>
@@ -8758,7 +8756,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>15</v>
       </c>
@@ -8772,7 +8770,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>16</v>
       </c>
@@ -8786,7 +8784,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>9</v>
       </c>
@@ -8800,7 +8798,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>9</v>
       </c>
@@ -8814,7 +8812,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>7</v>
       </c>
@@ -8828,7 +8826,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>12</v>
       </c>
@@ -8842,7 +8840,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>13</v>
       </c>
@@ -8856,7 +8854,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>11</v>
       </c>
@@ -8870,7 +8868,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>9</v>
       </c>
@@ -8884,7 +8882,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>16</v>
       </c>
@@ -8898,7 +8896,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>6</v>
       </c>
@@ -8912,7 +8910,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>10</v>
       </c>
@@ -8926,7 +8924,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>16</v>
       </c>
@@ -8940,7 +8938,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>15</v>
       </c>
@@ -8954,7 +8952,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>13</v>
       </c>
@@ -8968,7 +8966,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>0</v>
       </c>
@@ -8982,7 +8980,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>7</v>
       </c>
@@ -8996,7 +8994,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>8</v>
       </c>
@@ -9010,7 +9008,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>16</v>
       </c>
@@ -9024,7 +9022,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>14</v>
       </c>
@@ -9038,7 +9036,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>0</v>
       </c>
@@ -9052,7 +9050,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>0</v>
       </c>
@@ -9066,7 +9064,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>15</v>
       </c>
@@ -9080,7 +9078,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>0</v>
       </c>
@@ -9094,7 +9092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>8</v>
       </c>
@@ -9108,7 +9106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>11</v>
       </c>
@@ -9122,7 +9120,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>11</v>
       </c>
@@ -9136,7 +9134,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>5</v>
       </c>
@@ -9150,7 +9148,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>5</v>
       </c>
@@ -9164,7 +9162,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>10</v>
       </c>
@@ -9178,7 +9176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>10</v>
       </c>
@@ -9192,7 +9190,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>7</v>
       </c>
@@ -9206,7 +9204,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>12</v>
       </c>
@@ -9220,7 +9218,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>4</v>
       </c>
@@ -9234,7 +9232,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>9</v>
       </c>
@@ -9248,7 +9246,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>10</v>
       </c>
@@ -9262,7 +9260,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>9</v>
       </c>
@@ -9276,7 +9274,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>10</v>
       </c>
@@ -9290,7 +9288,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>3</v>
       </c>
@@ -9304,7 +9302,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>16</v>
       </c>
@@ -9318,7 +9316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>11</v>
       </c>
@@ -9332,7 +9330,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>11</v>
       </c>
@@ -9346,7 +9344,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>12</v>
       </c>
@@ -9360,7 +9358,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>11</v>
       </c>
@@ -9374,7 +9372,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>6</v>
       </c>
@@ -9388,7 +9386,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>16</v>
       </c>
@@ -9402,7 +9400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>6</v>
       </c>
@@ -9416,7 +9414,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>10</v>
       </c>
@@ -9430,7 +9428,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>9</v>
       </c>
@@ -9444,7 +9442,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>0</v>
       </c>
@@ -9458,7 +9456,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>9</v>
       </c>
@@ -9472,7 +9470,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>10</v>
       </c>
@@ -9486,7 +9484,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>9</v>
       </c>
@@ -9500,7 +9498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>13</v>
       </c>
@@ -9514,7 +9512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>3</v>
       </c>
@@ -9528,7 +9526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>9</v>
       </c>
@@ -9542,7 +9540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>15</v>
       </c>
@@ -9556,7 +9554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>11</v>
       </c>
@@ -9570,7 +9568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>16</v>
       </c>
@@ -9584,7 +9582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>10</v>
       </c>
@@ -9598,7 +9596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>0</v>
       </c>
@@ -9612,7 +9610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>16</v>
       </c>
@@ -9626,7 +9624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>16</v>
       </c>
@@ -9640,7 +9638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>8</v>
       </c>
@@ -9654,7 +9652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>6</v>
       </c>
@@ -9668,7 +9666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>0</v>
       </c>
@@ -9682,7 +9680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>15</v>
       </c>
@@ -9696,7 +9694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>0</v>
       </c>
@@ -9710,7 +9708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>13</v>
       </c>
@@ -9724,7 +9722,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>8</v>
       </c>
@@ -9738,7 +9736,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>0</v>
       </c>
@@ -9752,7 +9750,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>15</v>
       </c>
@@ -9766,7 +9764,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>13</v>
       </c>
@@ -9780,7 +9778,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>13</v>
       </c>
@@ -9794,7 +9792,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>10</v>
       </c>
@@ -9808,7 +9806,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>8</v>
       </c>
@@ -9822,7 +9820,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>6</v>
       </c>
@@ -9836,7 +9834,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>6</v>
       </c>
@@ -9850,7 +9848,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>0</v>
       </c>
@@ -9864,7 +9862,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>12</v>
       </c>
@@ -9878,7 +9876,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>9</v>
       </c>
@@ -9892,7 +9890,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>12</v>
       </c>
@@ -9906,7 +9904,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>15</v>
       </c>
@@ -9920,7 +9918,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>10</v>
       </c>
@@ -9934,7 +9932,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>13</v>
       </c>
@@ -9948,7 +9946,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>16</v>
       </c>
@@ -9962,7 +9960,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>8</v>
       </c>
@@ -9976,7 +9974,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>12</v>
       </c>
@@ -9990,7 +9988,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>8</v>
       </c>
@@ -10004,7 +10002,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>8</v>
       </c>
@@ -10018,7 +10016,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>13</v>
       </c>
@@ -10032,7 +10030,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>16</v>
       </c>
@@ -10046,7 +10044,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>8</v>
       </c>
@@ -10060,7 +10058,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>16</v>
       </c>
@@ -10074,7 +10072,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>13</v>
       </c>
@@ -10088,7 +10086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>12</v>
       </c>
@@ -10102,7 +10100,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>6</v>
       </c>
@@ -10116,7 +10114,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>8</v>
       </c>
@@ -10130,7 +10128,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>7</v>
       </c>
@@ -10144,7 +10142,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>11</v>
       </c>
@@ -10158,7 +10156,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>0</v>
       </c>
@@ -10172,7 +10170,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>0</v>
       </c>
@@ -10186,7 +10184,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>12</v>
       </c>
@@ -10200,7 +10198,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>5</v>
       </c>
@@ -10214,7 +10212,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>13</v>
       </c>
@@ -10228,7 +10226,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>11</v>
       </c>
@@ -10242,7 +10240,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>6</v>
       </c>
@@ -10256,7 +10254,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>16</v>
       </c>
@@ -10270,7 +10268,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>14</v>
       </c>
@@ -10284,7 +10282,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>16</v>
       </c>
@@ -10298,7 +10296,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>12</v>
       </c>
@@ -10312,7 +10310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>0</v>
       </c>
@@ -10326,7 +10324,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>0</v>
       </c>
@@ -10340,7 +10338,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>15</v>
       </c>
@@ -10354,7 +10352,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>10</v>
       </c>
@@ -10368,7 +10366,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>0</v>
       </c>
@@ -10382,7 +10380,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>7</v>
       </c>
@@ -10396,7 +10394,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>16</v>
       </c>
@@ -10410,7 +10408,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>15</v>
       </c>
@@ -10424,7 +10422,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>8</v>
       </c>
@@ -10438,7 +10436,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>12</v>
       </c>
@@ -10452,7 +10450,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>16</v>
       </c>
@@ -10466,7 +10464,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>15</v>
       </c>
@@ -10480,7 +10478,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>8</v>
       </c>
@@ -10494,7 +10492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>14</v>
       </c>
@@ -10508,7 +10506,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>6</v>
       </c>
@@ -10522,7 +10520,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>0</v>
       </c>
@@ -10536,7 +10534,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>11</v>
       </c>
@@ -10550,7 +10548,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>15</v>
       </c>
@@ -10564,7 +10562,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>11</v>
       </c>
@@ -10578,7 +10576,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>0</v>
       </c>
@@ -10592,7 +10590,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>16</v>
       </c>
@@ -10606,7 +10604,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>16</v>
       </c>
@@ -10620,7 +10618,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>16</v>
       </c>
@@ -10634,7 +10632,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>14</v>
       </c>
@@ -10648,7 +10646,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>0</v>
       </c>
@@ -10662,7 +10660,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>9</v>
       </c>
@@ -10676,7 +10674,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>12</v>
       </c>
@@ -10690,7 +10688,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>11</v>
       </c>
@@ -10704,7 +10702,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>11</v>
       </c>
@@ -10718,7 +10716,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>16</v>
       </c>
@@ -10732,7 +10730,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>3</v>
       </c>
@@ -10746,7 +10744,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>16</v>
       </c>
@@ -10760,7 +10758,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>10</v>
       </c>
@@ -10774,7 +10772,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>9</v>
       </c>
@@ -10788,7 +10786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>13</v>
       </c>
@@ -10802,7 +10800,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>5</v>
       </c>
@@ -10816,7 +10814,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>8</v>
       </c>
@@ -10830,7 +10828,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>13</v>
       </c>
@@ -10844,7 +10842,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>11</v>
       </c>
@@ -10858,7 +10856,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>12</v>
       </c>
@@ -10872,7 +10870,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>5</v>
       </c>
@@ -10886,7 +10884,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>12</v>
       </c>
@@ -10900,7 +10898,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>10</v>
       </c>
@@ -10914,7 +10912,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>16</v>
       </c>
@@ -10928,7 +10926,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>6</v>
       </c>
@@ -10942,7 +10940,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>0</v>
       </c>
@@ -10956,7 +10954,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>11</v>
       </c>
@@ -10970,7 +10968,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>9</v>
       </c>
@@ -10984,7 +10982,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>11</v>
       </c>
@@ -10998,7 +10996,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>4</v>
       </c>
@@ -11012,7 +11010,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>0</v>
       </c>
@@ -11026,7 +11024,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>11</v>
       </c>
@@ -11040,7 +11038,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>16</v>
       </c>
@@ -11054,7 +11052,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>11</v>
       </c>
@@ -11068,7 +11066,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>9</v>
       </c>
@@ -11082,7 +11080,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>9</v>
       </c>
@@ -11096,7 +11094,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>16</v>
       </c>
@@ -11110,7 +11108,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>16</v>
       </c>
@@ -11124,7 +11122,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>10</v>
       </c>
@@ -11138,7 +11136,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>8</v>
       </c>
@@ -11152,7 +11150,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>16</v>
       </c>
@@ -11166,7 +11164,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>12</v>
       </c>
@@ -11180,7 +11178,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>8</v>
       </c>
@@ -11194,7 +11192,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>16</v>
       </c>
@@ -11208,7 +11206,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>16</v>
       </c>
@@ -11222,7 +11220,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>9</v>
       </c>
@@ -11236,7 +11234,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>12</v>
       </c>
@@ -11250,7 +11248,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>11</v>
       </c>
@@ -11264,7 +11262,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>11</v>
       </c>
@@ -11278,7 +11276,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>9</v>
       </c>
@@ -11292,7 +11290,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>21</v>
       </c>
@@ -11306,7 +11304,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>10</v>
       </c>
@@ -11320,7 +11318,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>6</v>
       </c>
@@ -11334,7 +11332,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>5</v>
       </c>
@@ -11348,7 +11346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>6</v>
       </c>
@@ -11362,7 +11360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>5</v>
       </c>
@@ -11376,7 +11374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>6</v>
       </c>
@@ -11390,7 +11388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>12</v>
       </c>
@@ -11404,7 +11402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>12</v>
       </c>
@@ -11418,7 +11416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>16</v>
       </c>
@@ -11432,7 +11430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>16</v>
       </c>
@@ -11446,7 +11444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>16</v>
       </c>
@@ -11460,7 +11458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>16</v>
       </c>
@@ -11474,7 +11472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>16</v>
       </c>
@@ -11488,7 +11486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>14</v>
       </c>
@@ -11502,7 +11500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>16</v>
       </c>
@@ -11516,7 +11514,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>15</v>
       </c>
@@ -11530,7 +11528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>0</v>
       </c>
@@ -11544,7 +11542,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>13</v>
       </c>
@@ -11558,7 +11556,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>0</v>
       </c>
@@ -11572,7 +11570,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>16</v>
       </c>
@@ -11586,7 +11584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>4</v>
       </c>
@@ -11600,7 +11598,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>9</v>
       </c>
@@ -11614,7 +11612,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>10</v>
       </c>
@@ -11628,7 +11626,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>13</v>
       </c>
@@ -11642,7 +11640,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>0</v>
       </c>
@@ -11656,7 +11654,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>13</v>
       </c>
@@ -11670,7 +11668,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>8</v>
       </c>
@@ -11684,7 +11682,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>15</v>
       </c>
@@ -11698,7 +11696,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>16</v>
       </c>
@@ -11712,7 +11710,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>14</v>
       </c>
@@ -11726,7 +11724,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>16</v>
       </c>
@@ -11740,7 +11738,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>16</v>
       </c>
@@ -11754,7 +11752,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>16</v>
       </c>
@@ -11768,7 +11766,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>9</v>
       </c>
@@ -11782,7 +11780,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>11</v>
       </c>
@@ -11796,7 +11794,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>14</v>
       </c>
@@ -11810,7 +11808,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>9</v>
       </c>
@@ -11824,7 +11822,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>11</v>
       </c>
@@ -11838,7 +11836,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>0</v>
       </c>
@@ -11852,7 +11850,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>8</v>
       </c>
@@ -11866,7 +11864,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>0</v>
       </c>
@@ -11880,7 +11878,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>0</v>
       </c>
@@ -11894,7 +11892,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>0</v>
       </c>
@@ -11908,7 +11906,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>7</v>
       </c>
@@ -11922,7 +11920,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>13</v>
       </c>
@@ -11936,7 +11934,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>0</v>
       </c>
@@ -11950,7 +11948,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>19</v>
       </c>
@@ -11964,7 +11962,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>16</v>
       </c>
@@ -11978,7 +11976,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>7</v>
       </c>
@@ -11992,7 +11990,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>4</v>
       </c>
@@ -12006,7 +12004,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="784" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>11</v>
       </c>
@@ -12020,7 +12018,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>16</v>
       </c>
@@ -12034,7 +12032,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>4</v>
       </c>
@@ -12048,7 +12046,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>16</v>
       </c>
@@ -12062,7 +12060,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="788" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A788">
         <v>16</v>
       </c>
@@ -12076,7 +12074,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A789">
         <v>9</v>
       </c>
@@ -12090,7 +12088,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>16</v>
       </c>
@@ -12104,7 +12102,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>14</v>
       </c>
@@ -12118,7 +12116,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="792" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A792">
         <v>10</v>
       </c>
@@ -12132,7 +12130,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A793">
         <v>7</v>
       </c>
@@ -12146,7 +12144,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>11</v>
       </c>
@@ -12160,7 +12158,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>16</v>
       </c>
@@ -12174,7 +12172,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>7</v>
       </c>
@@ -12188,7 +12186,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>5</v>
       </c>
@@ -12202,7 +12200,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>4</v>
       </c>
@@ -12216,7 +12214,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>14</v>
       </c>
@@ -12230,7 +12228,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>4</v>
       </c>
@@ -12244,7 +12242,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="801" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>16</v>
       </c>
@@ -12258,7 +12256,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="802" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>16</v>
       </c>
@@ -12272,7 +12270,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="803" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>11</v>
       </c>
@@ -12286,7 +12284,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="804" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>0</v>
       </c>
@@ -12300,7 +12298,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="805" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>16</v>
       </c>
@@ -12314,7 +12312,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="806" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>7</v>
       </c>
@@ -12328,7 +12326,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="807" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>0</v>
       </c>
@@ -12342,7 +12340,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="808" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>11</v>
       </c>
@@ -12356,7 +12354,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="809" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>16</v>
       </c>
@@ -12370,7 +12368,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="810" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>11</v>
       </c>
@@ -12384,7 +12382,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="811" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>9</v>
       </c>
@@ -12398,7 +12396,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="812" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>16</v>
       </c>
@@ -12412,7 +12410,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="813" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>10</v>
       </c>
@@ -12426,7 +12424,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="814" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>3</v>
       </c>
@@ -12440,7 +12438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="815" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>16</v>
       </c>
@@ -12454,7 +12452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="816" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>11</v>
       </c>
@@ -12468,7 +12466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="817" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>8</v>
       </c>
@@ -12482,7 +12480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="818" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>0</v>
       </c>
@@ -12496,7 +12494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="819" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>7</v>
       </c>
@@ -12510,7 +12508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="820" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>3</v>
       </c>
@@ -12524,7 +12522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="821" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>7</v>
       </c>
@@ -12538,7 +12536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="822" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>0</v>
       </c>
@@ -12552,7 +12550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="823" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>0</v>
       </c>
@@ -12566,7 +12564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="824" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>12</v>
       </c>
@@ -12580,7 +12578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="825" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>0</v>
       </c>
@@ -12594,7 +12592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="826" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A826">
         <v>16</v>
       </c>
@@ -12608,7 +12606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="827" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A827">
         <v>9</v>
       </c>
@@ -12622,7 +12620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="828" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A828">
         <v>11</v>
       </c>
@@ -12636,7 +12634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="829" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A829">
         <v>11</v>
       </c>
@@ -12650,7 +12648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="830" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A830">
         <v>15</v>
       </c>
@@ -12664,7 +12662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="831" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A831">
         <v>5</v>
       </c>
@@ -12678,7 +12676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="832" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>10</v>
       </c>
@@ -12692,7 +12690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="833" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>10</v>
       </c>
@@ -12706,7 +12704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="834" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>10</v>
       </c>
@@ -12720,7 +12718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="835" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>12</v>
       </c>
@@ -12734,7 +12732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="836" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>11</v>
       </c>
@@ -12748,7 +12746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="837" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>9</v>
       </c>
@@ -12762,7 +12760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="838" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>11</v>
       </c>
@@ -12776,7 +12774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="839" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>16</v>
       </c>
@@ -12790,7 +12788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="840" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>2</v>
       </c>
@@ -12805,7 +12803,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D840" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
